--- a/backend/test_results/result.xlsx
+++ b/backend/test_results/result.xlsx
@@ -522,6 +522,11 @@
           <t>365027493316</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
@@ -595,6 +600,11 @@
       <c r="C3" s="1" t="n">
         <v>46005</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
@@ -625,7 +635,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>東京都新宿区新宿３－７－９</t>
+          <t>東京都新宿区 新宿３－７－９</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -665,6 +675,11 @@
           <t>365027468912</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
@@ -675,7 +690,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>志布志市志布志町安楽1969株式会社溝川工業鹿児島県</t>
+          <t>志布志市志布志町安楽 1969 株式会社　溝川工業 鹿児島県</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -696,7 +711,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -731,6 +746,11 @@
           <t>365027491511</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
@@ -761,7 +781,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>NoneGuangDong龙华区梅坂路民乐科技大厦211室</t>
+          <t>NoneGuangDong 龙华区梅坂路民乐科技大厦211室</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -801,6 +821,11 @@
           <t>365027492690</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
@@ -831,7 +856,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２２０２</t>
+          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２　２０２</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -874,6 +899,11 @@
       <c r="C7" s="1" t="n">
         <v>46008</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
@@ -884,7 +914,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>滋賀県甲賀市信楽町勅旨1993ギャラリーきりん</t>
+          <t>滋賀県甲賀市信楽町勅旨1993 ギャラリーきりん</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -944,6 +974,11 @@
           <t>365027492966</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
@@ -1014,6 +1049,11 @@
           <t>365027492793</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
@@ -1084,6 +1124,11 @@
           <t>365027492874</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
@@ -1154,6 +1199,11 @@
           <t>365027493320</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
@@ -1164,7 +1214,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>神奈川県横浜市青葉区しらとり台62-1Novemしらとり台9</t>
+          <t>神奈川県横浜市青葉区しらとり台62-1 Novem しらとり台 9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1224,6 +1274,11 @@
           <t>365027493213</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
@@ -1294,6 +1349,11 @@
           <t>365027493773</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
@@ -1304,7 +1364,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>東京都新宿区西新宿7丁目1-12Crossoffice新宿705</t>
+          <t>東京都新宿区西新宿7丁目1-12　 Crossoffice新宿705</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1325,7 +1385,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1360,6 +1420,11 @@
           <t>365027493261</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
@@ -1390,7 +1455,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>大阪市西成区3丁目5番14号FDSENISHI303</t>
+          <t>大阪市西成区3丁目5番14号FDS ENISHI303</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1430,6 +1495,11 @@
           <t>365027493563</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
@@ -1453,14 +1523,10 @@
           <t>428-0009</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>DIDA</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>大阪府堺市中百舌鳥町6丁目１００１-5盲亀浮木の店</t>
+          <t>大阪府堺市 中百舌鳥町6丁目１００１-5盲亀浮木の店</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1500,6 +1566,11 @@
           <t>365027492830</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
@@ -1510,7 +1581,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>群馬県太田市09081116263新田下田中町373-1東亜工業株式会社住宅事業部業務部業務課八木和佳宛</t>
+          <t>群馬県太田市09081116263新田下田中町373-1 東亜工業株式会社 住宅事業部 業務部 業務課 八木和佳宛</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1530,7 +1601,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２２０２</t>
+          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２　２０２</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1570,6 +1641,11 @@
           <t>365027492900</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
@@ -1580,7 +1656,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>広島県東広島市西条町御薗宇5288-1ロンディネA204</t>
+          <t>広島県東広島市西条町御薗宇5288-1 ロンディネA204</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1640,6 +1716,11 @@
           <t>365027492863</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
@@ -1650,7 +1731,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>北海道札幌市中央区南十四条西18丁目5-27グランエスセーナ701</t>
+          <t>北海道札幌市中央区南十四条西18丁目5-27 グランエスセーナ701</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1710,6 +1791,11 @@
           <t>365027492686</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
@@ -1932,6 +2018,11 @@
           <t>365027492826</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
@@ -2002,6 +2093,11 @@
           <t>365027493250</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
@@ -2145,6 +2241,11 @@
           <t>365027493246</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
@@ -2155,7 +2256,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>東京都豊島区東池袋5丁目8-5602号</t>
+          <t>東京都豊島区東池袋5丁目8-5 602号</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2215,6 +2316,11 @@
           <t>365027492933</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
@@ -2285,6 +2391,11 @@
           <t>365027470986</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
@@ -2295,7 +2406,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区河原町河原町団地13号棟223番</t>
+          <t>神奈川県川崎市幸区河原町 河原町団地13号棟223番</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2316,7 +2427,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2351,6 +2462,11 @@
           <t>365027493806</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
@@ -2361,7 +2477,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>東京都新宿区西新宿7丁目1-12Crossoffice新宿705</t>
+          <t>東京都新宿区西新宿7丁目1-12　 Crossoffice新宿705</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2382,7 +2498,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2493,6 +2609,11 @@
           <t>365027493596</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
@@ -2516,14 +2637,10 @@
           <t>085-0805</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>DIDA</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>大阪府堺市中百舌鳥町6丁目１００１-5盲亀浮木の店</t>
+          <t>大阪府堺市 中百舌鳥町6丁目１００１-5盲亀浮木の店</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2563,6 +2680,11 @@
           <t>365027469273</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
@@ -2573,7 +2695,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>愛知県春日井市上条町3-24-2-9C</t>
+          <t>愛知県 春日井市 上条町3-24-2-9C</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2594,7 +2716,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2629,6 +2751,11 @@
           <t>365027472121</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
@@ -2639,7 +2766,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>青森県青森市茶屋町4-14</t>
+          <t>青森県青森市 茶屋町4-14</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2660,7 +2787,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2695,6 +2822,11 @@
           <t>365027493644</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
@@ -2705,7 +2837,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>北海道札幌市豊平区中の島一条4丁目2-16Tiberina中の島401</t>
+          <t>北海道札幌市豊平区中の島一条4丁目2-16 Tiberina中の島401</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2725,7 +2857,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>中央区内本町2‐3‐8ダイアパレスビル本町1006ミズイシテクノロジー</t>
+          <t>中央区内本町2‐3‐8　ダイアパレスビル本町 1006ミズイシテクノロジー</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2765,6 +2897,11 @@
           <t>365027493493</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
@@ -2838,6 +2975,11 @@
       <c r="C35" s="1" t="n">
         <v>46008</v>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
@@ -2908,6 +3050,11 @@
           <t>365027469752</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
@@ -2939,7 +3086,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2974,6 +3121,11 @@
           <t>365027493191</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
@@ -3044,6 +3196,11 @@
           <t>365027493740</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
@@ -3114,6 +3271,11 @@
           <t>365027472235</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
@@ -3145,7 +3307,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3180,6 +3342,11 @@
           <t>365027493526</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
@@ -3203,14 +3370,10 @@
           <t>321-0203</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>DIDA</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>大阪府堺市中百舌鳥町6丁目１００１-5盲亀浮木の店</t>
+          <t>大阪府堺市 中百舌鳥町6丁目１００１-5盲亀浮木の店</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3250,6 +3413,11 @@
           <t>365027469284</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3428,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>大阪府大阪市中央区高津3-2-34ホワイトハイツ601</t>
+          <t>大阪府大阪市中央区高津3-2-34 ホワイトハイツ601</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3281,7 +3449,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3316,6 +3484,11 @@
           <t>365027492771</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
@@ -3346,7 +3519,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２２０２</t>
+          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２　２０２</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3402,7 +3575,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>栃木県日光市高徳38番地3サンクチュアリコート日光購買部フロント29</t>
+          <t>栃木県日光市高徳38番地3 サンクチュアリコート日光 購買部 フロント29</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3551,7 +3724,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>北海道札幌市厚別区厚別中央二条2-9-7トラスコートひばりが丘302</t>
+          <t>北海道札幌市厚別区厚別中央二条2-9-7 トラスコートひばりが丘302</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3644,7 +3817,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２２０２</t>
+          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２　２０２</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3906,6 +4079,11 @@
           <t>365027492955</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
@@ -3936,7 +4114,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２２０２</t>
+          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２　２０２</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3976,6 +4154,11 @@
           <t>365027493751</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
@@ -4046,6 +4229,11 @@
           <t>365027490855</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
@@ -4056,7 +4244,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>東京都新宿区歌舞伎町1-28-3TOMOビル3F</t>
+          <t>東京都新宿区歌舞伎町1-28-3 TOMOビル3F</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4116,6 +4304,11 @@
           <t>365027493434</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
@@ -4126,7 +4319,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>北海道札幌市中央区北三条東11丁目338プレミストタワーズ札幌苗穂AQUAGATE2403（12:00-14:00配達希望）</t>
+          <t>北海道札幌市中央区北三条東11丁目338 プレミストタワーズ札幌苗穂AQUAGATE 2403（12:00-14:00配達希望）</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4189,6 +4382,11 @@
       <c r="C54" s="1" t="n">
         <v>46008</v>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
@@ -4259,6 +4457,11 @@
           <t>365027473311</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
@@ -4290,7 +4493,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4325,6 +4528,11 @@
           <t>365027472132</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
@@ -4335,7 +4543,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>東京都千代田区神田佐久間町1-174F</t>
+          <t>東京都千代田区神田佐久間町1-17 4F</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4356,7 +4564,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4404,7 +4612,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>神奈川県川崎市中原区下小田中1-8-2KFAビル1階（パスタ屋とらうさぎ3番店）</t>
+          <t>神奈川県川崎市中原区下小田中1-8-2 KFAビル1階（パスタ屋 とらうさぎ3番店）</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4424,7 +4632,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>中央区内本町2‐3‐8ダイアパレスビル本町1006ミズイシテクノロジー</t>
+          <t>中央区内本町2‐3‐8　ダイアパレスビル本町 1006ミズイシテクノロジー</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4464,6 +4672,11 @@
           <t>365027493272</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
@@ -4534,6 +4747,11 @@
           <t>365027493040</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
@@ -4604,6 +4822,11 @@
           <t>365027492804</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
@@ -4750,6 +4973,11 @@
           <t>365027493180</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
@@ -4856,7 +5084,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>中央区内本町2‐3‐8ダイアパレスビル本町1006ミズイシテクノロジー</t>
+          <t>中央区内本町2‐3‐8　ダイアパレスビル本町 1006ミズイシテクノロジー</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4896,6 +5124,11 @@
           <t>365027472165</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
@@ -4906,7 +5139,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>福岡県城市北九州市戸畑区中原西地址1-11-6</t>
+          <t>福岡県 城市 北九州市戸畑区中原西 地址 1-11-6</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4927,7 +5160,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4962,6 +5195,11 @@
           <t>365027469925</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
@@ -4993,7 +5231,7 @@
       <c r="K65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5028,6 +5266,11 @@
           <t>365027469855</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
@@ -5059,7 +5302,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5097,6 +5340,11 @@
       <c r="C67" s="1" t="n">
         <v>46013</v>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
@@ -5167,6 +5415,11 @@
           <t>365027492734</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
@@ -5177,7 +5430,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>東京都千代田区神田佐久間4-15-1PREMIUMCUBE秋葉原1301号</t>
+          <t>東京都千代田区神田佐久間4-15-1PREMIUM CUBE 秋葉原1301号</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5237,6 +5490,11 @@
           <t>365027492970</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E69" t="n">
         <v>1</v>
       </c>
@@ -5267,7 +5525,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２２０２</t>
+          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２　２０２</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -5396,7 +5654,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>愛知県名古屋市千種区汁谷町4-1ヴィークステージ茶屋ヶ坂フォレストテラスF103</t>
+          <t>愛知県名古屋市千種区汁谷町4-1 ヴィークステージ茶屋ヶ坂フォレストテラスF103</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5456,6 +5714,11 @@
           <t>365027493364</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E72" t="n">
         <v>1</v>
       </c>
@@ -5486,7 +5749,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２２０２</t>
+          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２　２０２</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -5562,7 +5825,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２２０２</t>
+          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２　２０２</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5605,6 +5868,11 @@
       <c r="C74" s="1" t="n">
         <v>46008</v>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E74" t="n">
         <v>1</v>
       </c>
@@ -5675,6 +5943,11 @@
           <t>365027468901</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E75" t="n">
         <v>1</v>
       </c>
@@ -5685,7 +5958,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>甲賀市甲南町塩野306滋賀県</t>
+          <t>甲賀市甲南町塩野 306 滋賀県</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5706,7 +5979,7 @@
       <c r="K75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5741,6 +6014,11 @@
           <t>365027468890</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E76" t="n">
         <v>1</v>
       </c>
@@ -5751,7 +6029,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>東彼杵郡東彼杵町里郷1178-2長崎県</t>
+          <t>東彼杵郡東彼杵町里郷1178-2 長崎県</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5772,7 +6050,7 @@
       <c r="K76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5807,6 +6085,11 @@
           <t>365027470614</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
@@ -5817,7 +6100,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>埼玉県戸田市新曽802-2エクリューズ204</t>
+          <t>埼玉県戸田市新曽802-2 エクリューズ 204</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5838,7 +6121,7 @@
       <c r="K77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5873,6 +6156,11 @@
           <t>365027493574</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
@@ -5896,14 +6184,10 @@
           <t>880-0926</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>DIDA</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>大阪府堺市中百舌鳥町6丁目１００１-5盲亀浮木の店</t>
+          <t>大阪府堺市 中百舌鳥町6丁目１００１-5盲亀浮木の店</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5943,6 +6227,11 @@
           <t>365027492664</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
@@ -5973,7 +6262,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２２０２</t>
+          <t>東京都大田区上池台３－２４－１４スターハイツ洗足池２　２０２</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6013,6 +6302,11 @@
           <t>365027469262</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E80" t="n">
         <v>1</v>
       </c>
@@ -6044,7 +6338,7 @@
       <c r="K80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6231,6 +6525,11 @@
           <t>365027469251</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
@@ -6262,7 +6561,7 @@
       <c r="K83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6297,6 +6596,11 @@
           <t>365027469903</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E84" t="n">
         <v>1</v>
       </c>
@@ -6328,7 +6632,7 @@
       <c r="K84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6363,6 +6667,11 @@
           <t>365027469295</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E85" t="n">
         <v>1</v>
       </c>
@@ -6394,7 +6703,7 @@
       <c r="K85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6429,6 +6738,11 @@
           <t>365027470625</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E86" t="n">
         <v>1</v>
       </c>
@@ -6439,7 +6753,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>NO.3000ICHINOECHOEDOGAWA-KUTOKYO</t>
+          <t>NO.3000 ICHINOECHO EDOGAWA-KU TOKYO</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -6460,7 +6774,7 @@
       <c r="K86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6495,6 +6809,11 @@
           <t>365027492922</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
@@ -6505,7 +6824,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>兵庫県高砂市荒井町小松原3丁目1ー3ー202オリエンタルマンションI</t>
+          <t>兵庫県高砂市荒井町小松原3丁目1ー3ー202 オリエンタルマンションI</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -6717,6 +7036,11 @@
           <t>365027493036</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E90" t="n">
         <v>1</v>
       </c>
@@ -6787,6 +7111,11 @@
           <t>365027493762</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
@@ -6797,7 +7126,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>神奈川県横浜市保土ケ谷区岩井町222保土ヶ谷フラット3号棟317号</t>
+          <t>神奈川県横浜市保土ケ谷区岩井町222 保土ヶ谷フラット3号棟317号</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6857,6 +7186,11 @@
           <t>365027470603</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
@@ -6867,7 +7201,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>埼玉県戸田市新曽802-2エクリューズ204</t>
+          <t>埼玉県戸田市新曽802-2 エクリューズ 204</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6888,7 +7222,7 @@
       <c r="K92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -6923,6 +7257,11 @@
           <t>365027493390</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E93" t="n">
         <v>1</v>
       </c>
@@ -6993,6 +7332,11 @@
           <t>365027469936</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E94" t="n">
         <v>1</v>
       </c>
@@ -7024,7 +7368,7 @@
       <c r="K94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7059,6 +7403,11 @@
           <t>365027493821</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
@@ -7069,7 +7418,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>徳島県吉野川市鴨島町上下島字野神ノ元125-1五九郎ビル2F</t>
+          <t>徳島県吉野川市鴨島町上下島字野神ノ元125-1 五九郎ビル2F</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -7129,6 +7478,11 @@
           <t>365027493681</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
@@ -7139,7 +7493,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>大阪府吹田市桃山台2-3-8アンビエラ桃山台208</t>
+          <t>大阪府吹田市桃山台2-3-8 アンビエラ桃山台208</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -7199,6 +7553,11 @@
           <t>365027493725</t>
         </is>
       </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E97" t="n">
         <v>1</v>
       </c>
@@ -7269,6 +7628,11 @@
           <t>365027493504</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E98" t="n">
         <v>1</v>
       </c>
@@ -7279,7 +7643,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>埼玉県さいたま市岩槻区加倉4-12-3</t>
+          <t>埼玉県さいたま市岩槻区加倉 4-12-3</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7339,6 +7703,11 @@
           <t>365027469914</t>
         </is>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E99" t="n">
         <v>1</v>
       </c>
@@ -7370,7 +7739,7 @@
       <c r="K99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7405,6 +7774,11 @@
           <t>365027493714</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E100" t="n">
         <v>1</v>
       </c>
@@ -7475,6 +7849,11 @@
           <t>365027472176</t>
         </is>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E101" t="n">
         <v>1</v>
       </c>
@@ -7506,7 +7885,7 @@
       <c r="K101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7541,6 +7920,11 @@
           <t>365027472154</t>
         </is>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E102" t="n">
         <v>1</v>
       </c>
@@ -7572,7 +7956,7 @@
       <c r="K102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7607,6 +7991,11 @@
           <t>365027493622</t>
         </is>
       </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E103" t="n">
         <v>1</v>
       </c>
@@ -7637,7 +8026,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>中央区内本町2‐3‐8ダイアパレスビル本町1006ミズイシテクノロジー</t>
+          <t>中央区内本町2‐3‐8　ダイアパレスビル本町 1006ミズイシテクノロジー</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -7677,6 +8066,11 @@
           <t>365027493202</t>
         </is>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E104" t="n">
         <v>1</v>
       </c>
@@ -7747,6 +8141,11 @@
           <t>365027492944</t>
         </is>
       </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E105" t="n">
         <v>1</v>
       </c>
@@ -7757,7 +8156,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>北海道釧路市美原四丁目5-18美原四丁目宿舎102号室</t>
+          <t>北海道釧路市美原四丁目5-18 美原四丁目宿舎 102号室</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -7817,6 +8216,11 @@
           <t>365027493224</t>
         </is>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E106" t="n">
         <v>1</v>
       </c>
@@ -7887,6 +8291,11 @@
           <t>365027493703</t>
         </is>
       </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E107" t="n">
         <v>1</v>
       </c>
@@ -7960,6 +8369,11 @@
       <c r="C108" s="1" t="n">
         <v>46007</v>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E108" t="n">
         <v>1</v>
       </c>
@@ -8030,6 +8444,11 @@
           <t>365027493611</t>
         </is>
       </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E109" t="n">
         <v>1</v>
       </c>
@@ -8100,6 +8519,11 @@
           <t>365027470592</t>
         </is>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E110" t="n">
         <v>1</v>
       </c>
@@ -8131,7 +8555,7 @@
       <c r="K110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8166,6 +8590,11 @@
           <t>365027493143</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E111" t="n">
         <v>1</v>
       </c>
@@ -8236,6 +8665,11 @@
           <t>365027491791</t>
         </is>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E112" t="n">
         <v>1</v>
       </c>
@@ -8266,7 +8700,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>中央区内本町2‐3‐8ダイアパレスビル本町1006ミズイシテクノロジー</t>
+          <t>中央区内本町2‐3‐8　ダイアパレスビル本町 1006ミズイシテクノロジー</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -8306,6 +8740,11 @@
           <t>365027493423</t>
         </is>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E113" t="n">
         <v>1</v>
       </c>
@@ -8316,7 +8755,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>滋賀県彦根市野田山町569-1ゴールドパティー5103</t>
+          <t>滋賀県彦根市野田山町569-1 ゴールドパティー5 103</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -8329,14 +8768,10 @@
           <t>522-0025</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>DIDA</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>千葉県流山市平方字下中谷806-1GLPALFALINK8-1F13番</t>
+          <t>千葉県流山市 平方 字下中谷806-1 GLP　ALFALINK8-1F　 13番</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -8376,6 +8811,11 @@
           <t>365027493666</t>
         </is>
       </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E114" t="n">
         <v>1</v>
       </c>
@@ -8462,7 +8902,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>東京都中野区中央4丁目53-4ベルプラザ402（午前中お願い）</t>
+          <t>東京都中野区中央4丁目53-4 ベルプラザ402（午前中お願い）</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -8601,6 +9041,11 @@
       <c r="C117" s="1" t="n">
         <v>46007</v>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E117" t="n">
         <v>1</v>
       </c>
@@ -8671,6 +9116,11 @@
           <t>365027493235</t>
         </is>
       </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E118" t="n">
         <v>1</v>
       </c>
@@ -8741,6 +9191,11 @@
           <t>365027493471</t>
         </is>
       </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E119" t="n">
         <v>1</v>
       </c>
@@ -8900,7 +9355,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>東京都武蔵村山市岸3-22-10昭和コーポ武蔵村山1101号室</t>
+          <t>東京都武蔵村山市岸 3-22-10 昭和コーポ武蔵村山1 101号室</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -9036,6 +9491,11 @@
           <t>365008241776</t>
         </is>
       </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E123" t="n">
         <v>1</v>
       </c>
@@ -9046,7 +9506,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>東京都新宿区早稲田鶴巻町112ReveResidence早稲田203号室</t>
+          <t>東京都新宿区早稲田鶴巻町112 ReveResidence早稲田203号室</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -9067,7 +9527,7 @@
       <c r="K123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9102,6 +9562,11 @@
           <t>365008241765</t>
         </is>
       </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E124" t="n">
         <v>1</v>
       </c>
@@ -9133,7 +9598,7 @@
       <c r="K124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
-          <t>0471377848</t>
+          <t> </t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -9168,6 +9633,11 @@
           <t>365008241780</t>
         </is>
       </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
       <c r="E125" t="n">
         <v>1</v>
       </c>
@@ -9199,76 +9669,70 @@
       <c r="K125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>148202040055</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Eyelash curler</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>160-0327 9161</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>365008241780</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>DIDA</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
           <t>0471377848</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>148202040055</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>Eyelash curler</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>160-0327 9161</t>
-        </is>
-      </c>
-      <c r="Q125" t="inlineStr">
-        <is>
-          <t>365008241780</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="G126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>160-0327 9161</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="J127" t="inlineStr">
         <is>
           <t>DIDA</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
+      <c r="M127" t="inlineStr">
         <is>
           <t>0471377848</t>
         </is>
       </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>160-0327 9161</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="G127" t="inlineStr"/>
-      <c r="J127" t="inlineStr">
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>160-0327 9161</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="J128" t="inlineStr">
         <is>
           <t>DIDA</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>0471377848</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>160-0327 9161</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="G128" t="inlineStr"/>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>DIDA</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
           <t>0471377848</t>
